--- a/files/Australian_Biosecurity_Genomic_Database_info.xlsx
+++ b/files/Australian_Biosecurity_Genomic_Database_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vicgov-my.sharepoint.com/personal/natasha_brohier_agriculture_vic_gov_au/Documents/Micro/Jana's role/database/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jb3r\VicGov\Animal Micro - OtherProjects\BIP\GitHub_files\AustralianBiosecurityGenomicDatabase\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="527" documentId="8_{AD5757B9-2840-4609-AE0C-A48F1F4A0D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC7F4C91-7572-4DC2-B7FD-E2282173185D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005A7944-9E88-41E7-84F8-29ADD7711844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{10EF04EB-D555-42B6-A425-3862D61CB64D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{10EF04EB-D555-42B6-A425-3862D61CB64D}"/>
   </bookViews>
   <sheets>
     <sheet name="Notifiable terrestrial" sheetId="1" r:id="rId1"/>
@@ -1913,26 +1913,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51167EC4-006B-4D87-8FCA-7CAD5BA16873}">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B22" sqref="A22:XFD22"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="96.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="68.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="83.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="96.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="83.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="51" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="85.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="85.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>196</v>
       </c>
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>196</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>196</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>196</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>196</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>196</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>139</v>
       </c>
@@ -2212,7 +2212,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>139</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>139</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>139</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>139</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>306</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>162</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>162</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>162</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>162</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>162</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>162</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>162</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>162</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>162</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>162</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>66</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>66</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>66</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>66</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>66</v>
       </c>
@@ -2947,7 +2947,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>66</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>66</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>66</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>66</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>66</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>66</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>66</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>66</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>227</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>227</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>227</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>227</v>
       </c>
@@ -3402,7 +3402,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>227</v>
       </c>
@@ -3437,7 +3437,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>227</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>243</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>243</v>
       </c>
@@ -3542,7 +3542,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>243</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>243</v>
       </c>
@@ -3612,7 +3612,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>243</v>
       </c>
@@ -3647,7 +3647,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>243</v>
       </c>
@@ -3682,7 +3682,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>243</v>
       </c>
@@ -3717,7 +3717,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>243</v>
       </c>
@@ -3752,7 +3752,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>243</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>243</v>
       </c>
@@ -3822,7 +3822,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>243</v>
       </c>
@@ -3857,7 +3857,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>243</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>243</v>
       </c>
@@ -3927,7 +3927,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>243</v>
       </c>
@@ -3971,7 +3971,7 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Calibri"&amp;12&amp;K000000OFFICIAL&amp;1#</oddHeader>
-    <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;12&amp;K000000OFFICIAL</oddFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;12&amp;K000000 OFFICIAL</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -3980,26 +3980,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{208D5A5F-6DF0-4308-854B-2C49E199C6C6}">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.08984375" customWidth="1"/>
-    <col min="6" max="6" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.90625" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.36328125" customWidth="1"/>
+    <col min="4" max="4" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
     <col min="11" max="11" width="77" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>331</v>
       </c>
@@ -4069,7 +4069,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>331</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>331</v>
       </c>
@@ -4139,7 +4139,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>331</v>
       </c>
@@ -4174,7 +4174,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>331</v>
       </c>
@@ -4209,7 +4209,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>331</v>
       </c>
@@ -4244,7 +4244,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>331</v>
       </c>
@@ -4279,7 +4279,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>331</v>
       </c>
@@ -4314,7 +4314,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>331</v>
       </c>
@@ -4349,7 +4349,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>331</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>331</v>
       </c>
@@ -4419,7 +4419,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>331</v>
       </c>
@@ -4454,7 +4454,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>331</v>
       </c>
@@ -4489,7 +4489,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>331</v>
       </c>
@@ -4524,7 +4524,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>331</v>
       </c>
@@ -4559,7 +4559,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>331</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>331</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>331</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>332</v>
       </c>
@@ -4699,7 +4699,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>332</v>
       </c>
@@ -4734,7 +4734,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>333</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>333</v>
       </c>
@@ -4804,7 +4804,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>333</v>
       </c>
@@ -4840,7 +4840,7 @@
       </c>
       <c r="M24" s="4"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>333</v>
       </c>
@@ -4877,7 +4877,7 @@
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>333</v>
       </c>
@@ -4914,7 +4914,7 @@
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>333</v>
       </c>
@@ -4949,7 +4949,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>333</v>
       </c>
@@ -4984,7 +4984,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>333</v>
       </c>
@@ -5019,7 +5019,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>333</v>
       </c>
@@ -5054,7 +5054,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>334</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>334</v>
       </c>
@@ -5124,7 +5124,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>334</v>
       </c>
@@ -5162,10 +5162,22 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;12&amp;K000000 OFFICIAL</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100755C9B9B539DF444ADCB9AA1D401BB43" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="198d9d054f6700f378081adb711b55ea">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e2088c45-b32c-4a2f-b748-1ced54c15c8c" xmlns:ns3="7533f65b-9fc6-4958-b4ee-249ab5582e7d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e8702a2f84b9ec77a91e1611b3ec492e" ns2:_="" ns3:_="">
     <xsd:import namespace="e2088c45-b32c-4a2f-b748-1ced54c15c8c"/>
@@ -5402,16 +5414,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE338436-1CD2-44E8-8501-61D26ED4E39B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{594F581C-7E1D-417C-A2FA-FE8C53917474}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5428,12 +5439,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE338436-1CD2-44E8-8501-61D26ED4E39B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/files/Australian_Biosecurity_Genomic_Database_info.xlsx
+++ b/files/Australian_Biosecurity_Genomic_Database_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vicgov-my.sharepoint.com/personal/natasha_brohier_agriculture_vic_gov_au/Documents/Micro/Jana's role/database/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jb3r\VicGov\Animal Micro - OtherProjects\BIP\GitHub_files\AustralianBiosecurityGenomicDatabase\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="527" documentId="8_{AD5757B9-2840-4609-AE0C-A48F1F4A0D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC7F4C91-7572-4DC2-B7FD-E2282173185D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15004524-3CA3-4317-A862-20412181C231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{10EF04EB-D555-42B6-A425-3862D61CB64D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{10EF04EB-D555-42B6-A425-3862D61CB64D}"/>
   </bookViews>
   <sheets>
     <sheet name="Notifiable terrestrial" sheetId="1" r:id="rId1"/>
@@ -1913,26 +1913,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51167EC4-006B-4D87-8FCA-7CAD5BA16873}">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B22" sqref="A22:XFD22"/>
+    <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="96.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="68.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="83.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="96.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="83.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="51" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="85.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="85.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>196</v>
       </c>
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>196</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>196</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>196</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>196</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>196</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>139</v>
       </c>
@@ -2212,7 +2212,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>139</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>139</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>139</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>139</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>306</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>162</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>162</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>162</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>162</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>162</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>162</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>162</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>162</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>162</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>162</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>66</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>66</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>66</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>66</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>66</v>
       </c>
@@ -2947,7 +2947,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>66</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>66</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>66</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>66</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>66</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>66</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>66</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>66</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>227</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>227</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>227</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>227</v>
       </c>
@@ -3402,7 +3402,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>227</v>
       </c>
@@ -3437,7 +3437,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>227</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>243</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>243</v>
       </c>
@@ -3542,7 +3542,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>243</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>243</v>
       </c>
@@ -3612,7 +3612,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>243</v>
       </c>
@@ -3647,7 +3647,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>243</v>
       </c>
@@ -3682,7 +3682,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>243</v>
       </c>
@@ -3717,7 +3717,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>243</v>
       </c>
@@ -3752,7 +3752,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>243</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>243</v>
       </c>
@@ -3822,7 +3822,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>243</v>
       </c>
@@ -3857,7 +3857,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>243</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>243</v>
       </c>
@@ -3927,7 +3927,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>243</v>
       </c>
@@ -3971,7 +3971,7 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Calibri"&amp;12&amp;K000000OFFICIAL&amp;1#</oddHeader>
-    <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;12&amp;K000000OFFICIAL</oddFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;12&amp;K000000 OFFICIAL</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -3980,26 +3980,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{208D5A5F-6DF0-4308-854B-2C49E199C6C6}">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.08984375" customWidth="1"/>
-    <col min="6" max="6" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.90625" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.36328125" customWidth="1"/>
+    <col min="4" max="4" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
     <col min="11" max="11" width="77" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>331</v>
       </c>
@@ -4069,7 +4069,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>331</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>331</v>
       </c>
@@ -4139,7 +4139,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>331</v>
       </c>
@@ -4174,7 +4174,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>331</v>
       </c>
@@ -4209,7 +4209,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>331</v>
       </c>
@@ -4244,7 +4244,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>331</v>
       </c>
@@ -4279,7 +4279,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>331</v>
       </c>
@@ -4314,7 +4314,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>331</v>
       </c>
@@ -4349,7 +4349,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>331</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>331</v>
       </c>
@@ -4419,7 +4419,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>331</v>
       </c>
@@ -4454,7 +4454,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>331</v>
       </c>
@@ -4489,7 +4489,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>331</v>
       </c>
@@ -4524,7 +4524,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>331</v>
       </c>
@@ -4559,7 +4559,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>331</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>331</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>331</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>332</v>
       </c>
@@ -4699,7 +4699,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>332</v>
       </c>
@@ -4734,7 +4734,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>333</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>333</v>
       </c>
@@ -4804,7 +4804,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>333</v>
       </c>
@@ -4840,7 +4840,7 @@
       </c>
       <c r="M24" s="4"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>333</v>
       </c>
@@ -4877,7 +4877,7 @@
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>333</v>
       </c>
@@ -4914,7 +4914,7 @@
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>333</v>
       </c>
@@ -4949,7 +4949,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>333</v>
       </c>
@@ -4984,7 +4984,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>333</v>
       </c>
@@ -5019,7 +5019,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>333</v>
       </c>
@@ -5054,7 +5054,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>334</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>334</v>
       </c>
@@ -5124,7 +5124,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>334</v>
       </c>
@@ -5162,6 +5162,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;12&amp;K000000 OFFICIAL</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 

--- a/files/Australian_Biosecurity_Genomic_Database_info.xlsx
+++ b/files/Australian_Biosecurity_Genomic_Database_info.xlsx
@@ -5178,8 +5178,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100755C9B9B539DF444ADCB9AA1D401BB43" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="198d9d054f6700f378081adb711b55ea">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e2088c45-b32c-4a2f-b748-1ced54c15c8c" xmlns:ns3="7533f65b-9fc6-4958-b4ee-249ab5582e7d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e8702a2f84b9ec77a91e1611b3ec492e" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100755C9B9B539DF444ADCB9AA1D401BB43" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="75bdbb55888cf60a89a1a04c74a7ddb9">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e2088c45-b32c-4a2f-b748-1ced54c15c8c" xmlns:ns3="7533f65b-9fc6-4958-b4ee-249ab5582e7d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="597dc51e6f81fbc8020ec323f56a734c" ns2:_="" ns3:_="">
     <xsd:import namespace="e2088c45-b32c-4a2f-b748-1ced54c15c8c"/>
     <xsd:import namespace="7533f65b-9fc6-4958-b4ee-249ab5582e7d"/>
     <xsd:element name="properties">
@@ -5202,6 +5202,7 @@
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -5272,6 +5273,11 @@
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="23" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="7533f65b-9fc6-4958-b4ee-249ab5582e7d" elementFormDefault="qualified">
@@ -5423,20 +5429,5 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{594F581C-7E1D-417C-A2FA-FE8C53917474}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="e2088c45-b32c-4a2f-b748-1ced54c15c8c"/>
-    <ds:schemaRef ds:uri="7533f65b-9fc6-4958-b4ee-249ab5582e7d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60B11F12-1017-4A83-A209-5A4212B4B1BE}"/>
 </file>
--- a/files/Australian_Biosecurity_Genomic_Database_info.xlsx
+++ b/files/Australian_Biosecurity_Genomic_Database_info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jb3r\VicGov\Animal Micro - OtherProjects\BIP\GitHub_files\AustralianBiosecurityGenomicDatabase\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vicgov.sharepoint.com/sites/VG001119/D01/BIP/GitHub_files/AustralianBiosecurityGenomicDatabase/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005A7944-9E88-41E7-84F8-29ADD7711844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="107" documentId="13_ncr:1_{005A7944-9E88-41E7-84F8-29ADD7711844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5380B894-6805-4CF6-A5B5-5028D9AFD378}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{10EF04EB-D555-42B6-A425-3862D61CB64D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="520">
   <si>
     <t>TaxID</t>
   </si>
@@ -178,9 +178,6 @@
     <t>&gt;NC_034386.1_Nairobi_sheep_disease_virus_isolate_Jilin</t>
   </si>
   <si>
-    <t>&gt;NC_038236.1_Vesicular_stomatitis_Indiana_virus_strain_98COE</t>
-  </si>
-  <si>
     <t>&gt;NC_038574.1_Equine_encephalosis_virus_isolate_HS103-06</t>
   </si>
   <si>
@@ -283,12 +280,6 @@
     <t>Borna disease</t>
   </si>
   <si>
-    <t>Borna disease virus</t>
-  </si>
-  <si>
-    <t>Mammalian 1 orthobornavirus</t>
-  </si>
-  <si>
     <t>Orthobornavirus</t>
   </si>
   <si>
@@ -301,12 +292,6 @@
     <t>Crimean-Congo haemorrhagic fever</t>
   </si>
   <si>
-    <t>Crimean-Congo hemorrhagic fever virus</t>
-  </si>
-  <si>
-    <t>Crimean-Congo hemorrhagic fever orthonairovirus</t>
-  </si>
-  <si>
     <t>Orthonairovirus</t>
   </si>
   <si>
@@ -349,9 +334,6 @@
     <t>Japanese encephalitis virus</t>
   </si>
   <si>
-    <t>Flavivirus</t>
-  </si>
-  <si>
     <t>Flaviviridae</t>
   </si>
   <si>
@@ -361,18 +343,9 @@
     <t>Malignant catarrhal fever, wildebeest-associated</t>
   </si>
   <si>
-    <t>Alcelaphine herpesvirus 1; Wildebeest-associated malignant catarrhal fever virus</t>
-  </si>
-  <si>
-    <t>Alcelaphine gammaherpesvirus 1</t>
-  </si>
-  <si>
     <t>Macavirus</t>
   </si>
   <si>
-    <t>Herpesviridae</t>
-  </si>
-  <si>
     <t>dsDNA</t>
   </si>
   <si>
@@ -382,24 +355,12 @@
     <t>Rabies</t>
   </si>
   <si>
-    <t>Rabies virus</t>
-  </si>
-  <si>
-    <t>Rabies lyssavirus</t>
-  </si>
-  <si>
     <t>Infection with Rift Valley fever virus</t>
   </si>
   <si>
     <t>Rift Valley fever</t>
   </si>
   <si>
-    <t>Rift Valley fever virus</t>
-  </si>
-  <si>
-    <t>Rift Valley fever phlebovirus</t>
-  </si>
-  <si>
     <t>Phlebovirus</t>
   </si>
   <si>
@@ -409,12 +370,6 @@
     <t>Infection with rinderpest virus</t>
   </si>
   <si>
-    <t>Rinderpest virus</t>
-  </si>
-  <si>
-    <t>Rinderpest morbillivirus</t>
-  </si>
-  <si>
     <t>Morbillivirus</t>
   </si>
   <si>
@@ -436,12 +391,6 @@
     <t xml:space="preserve">Vesicular stomatitis </t>
   </si>
   <si>
-    <t>Vesicular stomatitis Indiana virus</t>
-  </si>
-  <si>
-    <t>Indiana vesiculovirus</t>
-  </si>
-  <si>
     <t>Vesiculovirus</t>
   </si>
   <si>
@@ -463,12 +412,6 @@
     <t>Bovine viral diarrhoea (type 2)</t>
   </si>
   <si>
-    <t>Bovine viral diarrhea virus 2</t>
-  </si>
-  <si>
-    <t>Pestivirus B</t>
-  </si>
-  <si>
     <t>Pestivirus</t>
   </si>
   <si>
@@ -559,12 +502,6 @@
     <t>Infection with equine herpesvirus-1 (EHV-1)</t>
   </si>
   <si>
-    <t>Equine herpesvirus 1; Equine abortion virus</t>
-  </si>
-  <si>
-    <t>Equid alphaherpesvirus 1</t>
-  </si>
-  <si>
     <t>Varicellovirus</t>
   </si>
   <si>
@@ -577,9 +514,6 @@
     <t>Equine infectious anaemia virus</t>
   </si>
   <si>
-    <t>Alphainfluenzavirus</t>
-  </si>
-  <si>
     <t>Orthomyxoviridae</t>
   </si>
   <si>
@@ -616,12 +550,6 @@
     <t>Hendra virus infection</t>
   </si>
   <si>
-    <t>Hendra virus</t>
-  </si>
-  <si>
-    <t>Hendra henipavirus</t>
-  </si>
-  <si>
     <t>Henipavirus</t>
   </si>
   <si>
@@ -634,12 +562,6 @@
     <t>Infection with avian metapneumovirus (Turkey rhinotracheitis)</t>
   </si>
   <si>
-    <t>Avian pneumovirus; Avian rhinotracheitis virus</t>
-  </si>
-  <si>
-    <t>Avian metapneumovirus</t>
-  </si>
-  <si>
     <t>Metapneumovirus</t>
   </si>
   <si>
@@ -649,12 +571,6 @@
     <t>Infection with duck herpesvirus 1 (duck viral enteritis/duck plague)</t>
   </si>
   <si>
-    <t>Anatid herpesvirus 1</t>
-  </si>
-  <si>
-    <t>Anatid alphaherpesvirus 1</t>
-  </si>
-  <si>
     <t>Mardivirus</t>
   </si>
   <si>
@@ -676,12 +592,6 @@
     <t>Duck viral hepatitis types II and III</t>
   </si>
   <si>
-    <t>Duck astrovirus; Duck hepatitis virus 2</t>
-  </si>
-  <si>
-    <t>Avastrovirus 3</t>
-  </si>
-  <si>
     <t>Avastrovirus</t>
   </si>
   <si>
@@ -712,9 +622,6 @@
     <t>Newcastle disease (virulent)</t>
   </si>
   <si>
-    <t>Avian orthoavulavirus 1</t>
-  </si>
-  <si>
     <t>Orthoavulavirus</t>
   </si>
   <si>
@@ -736,21 +643,9 @@
     <t xml:space="preserve">Nairobi sheep disease </t>
   </si>
   <si>
-    <t>Ganjam virus</t>
-  </si>
-  <si>
-    <t>Nairobi sheep disease orthonairovirus</t>
-  </si>
-  <si>
     <t>Infection with peste des petits ruminants virus</t>
   </si>
   <si>
-    <t>Peste des petits ruminants virus</t>
-  </si>
-  <si>
-    <t>Small ruminant morbillivirus</t>
-  </si>
-  <si>
     <t>Infection with sheep pox virus or goat pox virus</t>
   </si>
   <si>
@@ -787,33 +682,15 @@
     <t>Infection with Aujeszky’s disease virus (pseudorabies virus)</t>
   </si>
   <si>
-    <t>Suid herpesvirus 1; Pseudorabies virus; Aujeszky's disease virus</t>
-  </si>
-  <si>
-    <t>Suid alphaherpesvirus 1</t>
-  </si>
-  <si>
     <t>Infection with classical swine fever virus</t>
   </si>
   <si>
-    <t>Classical swine fever virus</t>
-  </si>
-  <si>
-    <t>Pestivirus C</t>
-  </si>
-  <si>
     <t>Infection with Menangle virus</t>
   </si>
   <si>
     <t>Menangle virus infection</t>
   </si>
   <si>
-    <t>Menangle virus</t>
-  </si>
-  <si>
-    <t>Menangle pararubulavirus</t>
-  </si>
-  <si>
     <t>Pararubulavirus</t>
   </si>
   <si>
@@ -823,12 +700,6 @@
     <t>Nipah virus infection; Nipah virus encephalitis</t>
   </si>
   <si>
-    <t>Nipah virus</t>
-  </si>
-  <si>
-    <t>Nipah henipavirus</t>
-  </si>
-  <si>
     <t>Infection with Teschovirus A (porcine enteroviral encephalomyelitis)</t>
   </si>
   <si>
@@ -865,12 +736,6 @@
     <t>Porcine myocarditis syndrome (PMC)</t>
   </si>
   <si>
-    <t>Porcine pestivirus; Bungowannah virus</t>
-  </si>
-  <si>
-    <t>Pestivirus F</t>
-  </si>
-  <si>
     <t>Infection with porcine reproductive and respiratory syndrome virus</t>
   </si>
   <si>
@@ -889,9 +754,6 @@
     <t>Post-weaning multi-systemic wasting syndrome</t>
   </si>
   <si>
-    <t>Porcine circovirus 2</t>
-  </si>
-  <si>
     <t>Circovirus</t>
   </si>
   <si>
@@ -994,9 +856,6 @@
     <t>Equine herpesvirus myeloencephalopathy (EHM)</t>
   </si>
   <si>
-    <t>Newcastle disease virus; Avian paramyxovirus 1</t>
-  </si>
-  <si>
     <t>Avian pneumovirus; Turkey rhinotracheitis; Swollen head syndrome</t>
   </si>
   <si>
@@ -1544,6 +1403,198 @@
   </si>
   <si>
     <t>Aquatic national notifiable disease list AHC 2021 entry</t>
+  </si>
+  <si>
+    <t>Duck astrovirus</t>
+  </si>
+  <si>
+    <t>Metapneumovirus avis</t>
+  </si>
+  <si>
+    <t>Mardivirus anatidalpha1</t>
+  </si>
+  <si>
+    <t>Orthoherpesviridae</t>
+  </si>
+  <si>
+    <t>Avibirnavirus gumboroense</t>
+  </si>
+  <si>
+    <t>Orthoavulavirus javaense</t>
+  </si>
+  <si>
+    <t>Pestivirus tauri</t>
+  </si>
+  <si>
+    <t>Orthoflavivirus loupingi</t>
+  </si>
+  <si>
+    <t>Orthoflavivirus</t>
+  </si>
+  <si>
+    <t>Varicellovirus equidalpha1</t>
+  </si>
+  <si>
+    <t>Henipavirus hendraense</t>
+  </si>
+  <si>
+    <t>Orthoflavivirus encephalitidis</t>
+  </si>
+  <si>
+    <t>Macavirus alcelaphinegamma1</t>
+  </si>
+  <si>
+    <t>Lyssavirus australis</t>
+  </si>
+  <si>
+    <t>Orthobornavirus bornaense</t>
+  </si>
+  <si>
+    <t>Orthonairovirus haemorrhagiae</t>
+  </si>
+  <si>
+    <t>Influenzavirus A</t>
+  </si>
+  <si>
+    <t>Orthoflavivirus japonicum</t>
+  </si>
+  <si>
+    <t>Lyssavirus rabies</t>
+  </si>
+  <si>
+    <t>Phlebovirus riftense</t>
+  </si>
+  <si>
+    <t>Morbillivirus pecoris</t>
+  </si>
+  <si>
+    <t>Vesiculovirus alagoas</t>
+  </si>
+  <si>
+    <t>Vesiculovirus cocal</t>
+  </si>
+  <si>
+    <t>Vesiculovirus indiana</t>
+  </si>
+  <si>
+    <t>Vesiculovirus newjersey</t>
+  </si>
+  <si>
+    <t>Orthoflavivirus nilense</t>
+  </si>
+  <si>
+    <t>Orthonairovirus nairobiense</t>
+  </si>
+  <si>
+    <t>Morbillivirus caprinae</t>
+  </si>
+  <si>
+    <t>Orthoflavivirus wesselsbronense</t>
+  </si>
+  <si>
+    <t>Varicellovirus suidalpha1</t>
+  </si>
+  <si>
+    <t>Pestivirus australiaense</t>
+  </si>
+  <si>
+    <t>Pestivirus suis</t>
+  </si>
+  <si>
+    <t>Pararubulavirus menangleense</t>
+  </si>
+  <si>
+    <t>Henipavirus nipahense</t>
+  </si>
+  <si>
+    <t>Circovirus porcine2</t>
+  </si>
+  <si>
+    <t>Duck astrovirus; Duck hepatitis virus 2; Avastrovirus 3</t>
+  </si>
+  <si>
+    <t>Avian pneumovirus; Avian rhinotracheitis virus; Avian metapneumovirus</t>
+  </si>
+  <si>
+    <t>Anatid herpesvirus 1; Anatid alphaherpesvirus 1</t>
+  </si>
+  <si>
+    <t>Newcastle disease virus; Avian paramyxovirus 1; Avian orthoavulavirus 1</t>
+  </si>
+  <si>
+    <t>Bovine viral diarrhea virus 2; Pestivirus B</t>
+  </si>
+  <si>
+    <t>Hendra virus; Hendra henipavirus</t>
+  </si>
+  <si>
+    <t>Borna disease virus; Mammalian 1 orthobornavirus</t>
+  </si>
+  <si>
+    <t>Crimean-Congo hemorrhagic fever virus; Crimean-Congo hemorrhagic fever orthonairovirus</t>
+  </si>
+  <si>
+    <t>Rabies virus; Rabies lyssavirus</t>
+  </si>
+  <si>
+    <t>Rift Valley fever virus; Rift Valley fever phlebovirus</t>
+  </si>
+  <si>
+    <t>Rinderpest virus; Rinderpest morbillivirus</t>
+  </si>
+  <si>
+    <t>Ganjam virus; Nairobi sheep disease orthonairovirus</t>
+  </si>
+  <si>
+    <t>Peste des petits ruminants virus; Small ruminant morbillivirus</t>
+  </si>
+  <si>
+    <t>Porcine pestivirus; Bungowannah virus; Pestivirus F</t>
+  </si>
+  <si>
+    <t>Classical swine fever virus; Pestivirus C</t>
+  </si>
+  <si>
+    <t>Menangle virus; Menangle pararubulavirus</t>
+  </si>
+  <si>
+    <t>Nipah virus; Nipah henipavirus</t>
+  </si>
+  <si>
+    <t>Porcine circovirus 2; Porcine circovirus 2</t>
+  </si>
+  <si>
+    <t>&gt;NC_025353.1_Vesicular_stomatitis_Alagoas_virus_Indiana_3</t>
+  </si>
+  <si>
+    <t>&gt;NC_028255.1_Cocal_virus_Indiana_2</t>
+  </si>
+  <si>
+    <t>&gt;NC_001560.1_Vesicular_stomatitis_Indiana_virus</t>
+  </si>
+  <si>
+    <t>&gt;NC_024473.1_Vesicular_stomatitis_New_Jersey_virus_isolate_NJ1184HDB</t>
+  </si>
+  <si>
+    <t>Equine herpesvirus 1; Equid alphaherpesvirus 1; Equine abortion virus</t>
+  </si>
+  <si>
+    <t>Alcelaphine herpesvirus 1; Alcelaphine gammaherpesvirus 1; Wildebeest-associated malignant catarrhal fever virus</t>
+  </si>
+  <si>
+    <t>Alagoas vesiculovirus; Vesicular stomatitis Alagoas virus</t>
+  </si>
+  <si>
+    <t>Cocal vesiculovirus; Cocal virus</t>
+  </si>
+  <si>
+    <t>Indiana vesiculovirus; Vesicular stomatitis Indiana virus</t>
+  </si>
+  <si>
+    <t>New Jersey vesiculovirus</t>
+  </si>
+  <si>
+    <t>Suid herpesvirus 1; Suid alphaherpesvirus 1; Pseudorabies virus; Aujeszky's disease virus</t>
   </si>
 </sst>
 </file>
@@ -1911,10 +1962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51167EC4-006B-4D87-8FCA-7CAD5BA16873}">
-  <dimension ref="A1:K58"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1922,10 +1973,10 @@
     <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="96.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="68.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="83.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="51" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="118.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
@@ -1934,66 +1985,66 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>328</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="B2" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="C2" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="D2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F2" t="s">
-        <v>215</v>
-      </c>
-      <c r="G2" t="s">
-        <v>216</v>
+        <v>491</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>186</v>
       </c>
       <c r="H2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J2">
         <v>1239441</v>
@@ -2004,31 +2055,31 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="B3" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="C3" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="D3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F3" t="s">
-        <v>211</v>
-      </c>
-      <c r="G3" t="s">
-        <v>99</v>
+        <v>181</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="H3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J3">
         <v>1006061</v>
@@ -2039,66 +2090,66 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="B4" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="C4" t="s">
-        <v>320</v>
+        <v>273</v>
       </c>
       <c r="D4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E4" t="s">
-        <v>200</v>
-      </c>
-      <c r="F4" t="s">
-        <v>201</v>
-      </c>
-      <c r="G4" t="s">
-        <v>202</v>
+        <v>492</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="H4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J4">
         <v>38525</v>
       </c>
       <c r="K4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="B5" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="C5" t="s">
-        <v>321</v>
+        <v>274</v>
       </c>
       <c r="D5" t="s">
-        <v>204</v>
-      </c>
-      <c r="E5" t="s">
-        <v>205</v>
-      </c>
-      <c r="F5" t="s">
-        <v>206</v>
-      </c>
-      <c r="G5" t="s">
-        <v>111</v>
+        <v>493</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>459</v>
       </c>
       <c r="H5" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J5">
         <v>104388</v>
@@ -2109,31 +2160,31 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="B6" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="C6" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="D6" t="s">
-        <v>219</v>
-      </c>
-      <c r="E6" t="s">
-        <v>219</v>
-      </c>
-      <c r="F6" t="s">
-        <v>220</v>
-      </c>
-      <c r="G6" t="s">
-        <v>221</v>
+        <v>189</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>191</v>
       </c>
       <c r="H6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I6" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="J6">
         <v>10995</v>
@@ -2144,66 +2195,66 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="B7" t="s">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c r="C7" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="D7" t="s">
-        <v>319</v>
-      </c>
-      <c r="E7" t="s">
-        <v>225</v>
-      </c>
-      <c r="F7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G7" t="s">
-        <v>127</v>
+        <v>494</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="H7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J7">
         <v>2560319</v>
       </c>
       <c r="K7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="C8" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="D8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E8" t="s">
-        <v>147</v>
-      </c>
-      <c r="F8" t="s">
-        <v>148</v>
-      </c>
-      <c r="G8" t="s">
-        <v>149</v>
+        <v>128</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="H8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J8">
         <v>11901</v>
@@ -2214,66 +2265,66 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="C9" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="D9" t="s">
-        <v>142</v>
-      </c>
-      <c r="E9" t="s">
-        <v>143</v>
-      </c>
-      <c r="F9" t="s">
-        <v>144</v>
-      </c>
-      <c r="G9" t="s">
-        <v>105</v>
+        <v>495</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="H9" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J9">
         <v>54315</v>
       </c>
       <c r="K9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="B10" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="C10" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="D10" t="s">
-        <v>152</v>
-      </c>
-      <c r="E10" t="s">
-        <v>152</v>
-      </c>
-      <c r="F10" t="s">
-        <v>153</v>
-      </c>
-      <c r="G10" t="s">
-        <v>149</v>
+        <v>133</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="H10" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J10">
         <v>36370</v>
@@ -2284,31 +2335,31 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="B11" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="C11" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="D11" t="s">
-        <v>156</v>
-      </c>
-      <c r="E11" t="s">
-        <v>156</v>
-      </c>
-      <c r="F11" t="s">
-        <v>104</v>
-      </c>
-      <c r="G11" t="s">
-        <v>105</v>
+        <v>137</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="H11" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J11">
         <v>11086</v>
@@ -2319,31 +2370,31 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" t="s">
         <v>139</v>
       </c>
-      <c r="B12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C12" t="s">
-        <v>158</v>
-      </c>
       <c r="D12" t="s">
-        <v>159</v>
-      </c>
-      <c r="E12" t="s">
-        <v>159</v>
-      </c>
-      <c r="F12" t="s">
-        <v>160</v>
-      </c>
-      <c r="G12" t="s">
-        <v>161</v>
+        <v>140</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="H12" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="I12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J12">
         <v>376849</v>
@@ -2354,31 +2405,31 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>306</v>
+        <v>260</v>
       </c>
       <c r="B13" t="s">
-        <v>307</v>
+        <v>261</v>
       </c>
       <c r="C13" t="s">
-        <v>308</v>
+        <v>262</v>
       </c>
       <c r="D13" t="s">
-        <v>309</v>
-      </c>
-      <c r="E13" t="s">
-        <v>309</v>
-      </c>
-      <c r="F13" t="s">
-        <v>310</v>
-      </c>
-      <c r="G13" t="s">
-        <v>161</v>
+        <v>263</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="H13" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="I13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J13">
         <v>28873</v>
@@ -2389,31 +2440,31 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="B14" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="C14" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="D14" t="s">
-        <v>165</v>
-      </c>
-      <c r="E14" t="s">
-        <v>165</v>
-      </c>
-      <c r="F14" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>77</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>78</v>
-      </c>
-      <c r="I14" t="s">
-        <v>79</v>
       </c>
       <c r="J14">
         <v>40050</v>
@@ -2424,31 +2475,31 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="B15" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="C15" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="D15" t="s">
-        <v>311</v>
-      </c>
-      <c r="E15" t="s">
-        <v>311</v>
-      </c>
-      <c r="F15" t="s">
-        <v>168</v>
-      </c>
-      <c r="G15" t="s">
-        <v>169</v>
+        <v>265</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="H15" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J15">
         <v>11021</v>
@@ -2459,31 +2510,31 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="B16" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="C16" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="D16" t="s">
-        <v>314</v>
-      </c>
-      <c r="E16" t="s">
-        <v>314</v>
-      </c>
-      <c r="F16" t="s">
-        <v>168</v>
-      </c>
-      <c r="G16" t="s">
-        <v>169</v>
+        <v>268</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="H16" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J16">
         <v>11036</v>
@@ -2494,31 +2545,31 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="C17" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="D17" t="s">
-        <v>315</v>
-      </c>
-      <c r="E17" t="s">
-        <v>315</v>
-      </c>
-      <c r="F17" t="s">
-        <v>168</v>
-      </c>
-      <c r="G17" t="s">
-        <v>169</v>
+        <v>269</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="H17" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J17">
         <v>11039</v>
@@ -2529,31 +2580,31 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C18" t="s">
+        <v>161</v>
+      </c>
+      <c r="D18" t="s">
         <v>162</v>
       </c>
-      <c r="B18" t="s">
-        <v>182</v>
-      </c>
-      <c r="C18" t="s">
-        <v>183</v>
-      </c>
-      <c r="D18" t="s">
-        <v>184</v>
-      </c>
-      <c r="E18" t="s">
-        <v>185</v>
-      </c>
-      <c r="F18" t="s">
-        <v>186</v>
-      </c>
-      <c r="G18" t="s">
-        <v>187</v>
+      <c r="E18" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>165</v>
       </c>
       <c r="H18" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J18">
         <v>11047</v>
@@ -2564,66 +2615,66 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="B19" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="C19" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="D19" t="s">
-        <v>172</v>
-      </c>
-      <c r="E19" t="s">
-        <v>172</v>
-      </c>
-      <c r="F19" t="s">
+        <v>153</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>77</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>78</v>
-      </c>
-      <c r="I19" t="s">
-        <v>79</v>
       </c>
       <c r="J19">
         <v>201490</v>
       </c>
       <c r="K19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="B20" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="C20" t="s">
-        <v>318</v>
+        <v>272</v>
       </c>
       <c r="D20" t="s">
-        <v>174</v>
-      </c>
-      <c r="E20" t="s">
-        <v>175</v>
-      </c>
-      <c r="F20" t="s">
-        <v>176</v>
-      </c>
-      <c r="G20" t="s">
-        <v>111</v>
+        <v>513</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>459</v>
       </c>
       <c r="H20" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="I20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J20">
         <v>10326</v>
@@ -2634,31 +2685,31 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="B21" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="C21" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="D21" t="s">
-        <v>179</v>
-      </c>
-      <c r="E21" t="s">
-        <v>179</v>
-      </c>
-      <c r="F21" t="s">
-        <v>153</v>
-      </c>
-      <c r="G21" t="s">
-        <v>149</v>
+        <v>158</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="H21" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J21">
         <v>11665</v>
@@ -2669,31 +2720,31 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="B22" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="C22" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="D22" t="s">
-        <v>190</v>
-      </c>
-      <c r="E22" t="s">
-        <v>190</v>
-      </c>
-      <c r="F22" t="s">
         <v>168</v>
       </c>
-      <c r="G22" t="s">
-        <v>169</v>
+      <c r="E22" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="H22" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J22">
         <v>59300</v>
@@ -2704,31 +2755,31 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="B23" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="C23" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="D23" t="s">
-        <v>193</v>
-      </c>
-      <c r="E23" t="s">
-        <v>194</v>
-      </c>
-      <c r="F23" t="s">
-        <v>195</v>
-      </c>
-      <c r="G23" t="s">
-        <v>127</v>
+        <v>496</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="H23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J23">
         <v>63330</v>
@@ -2739,31 +2790,31 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" t="s">
         <v>73</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>74</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E24" t="s">
-        <v>75</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="G24" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>77</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>78</v>
-      </c>
-      <c r="I24" t="s">
-        <v>79</v>
       </c>
       <c r="J24">
         <v>40051</v>
@@ -2774,31 +2825,31 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B25" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="C25" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="D25" t="s">
-        <v>130</v>
-      </c>
-      <c r="E25" t="s">
-        <v>130</v>
-      </c>
-      <c r="F25" t="s">
-        <v>104</v>
-      </c>
-      <c r="G25" t="s">
-        <v>105</v>
+        <v>115</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="H25" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J25">
         <v>11084</v>
@@ -2809,31 +2860,31 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B26" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C26" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D26" t="s">
-        <v>94</v>
-      </c>
-      <c r="E26" t="s">
-        <v>94</v>
-      </c>
-      <c r="F26" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>77</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>78</v>
-      </c>
-      <c r="I26" t="s">
-        <v>79</v>
       </c>
       <c r="J26">
         <v>449133</v>
@@ -2844,31 +2895,31 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C27" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D27" t="s">
-        <v>108</v>
-      </c>
-      <c r="E27" t="s">
-        <v>109</v>
-      </c>
-      <c r="F27" t="s">
-        <v>110</v>
-      </c>
-      <c r="G27" t="s">
-        <v>111</v>
+        <v>514</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>459</v>
       </c>
       <c r="H27" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="I27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J27">
         <v>35252</v>
@@ -2879,31 +2930,31 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" t="s">
         <v>66</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>67</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E28" t="s">
-        <v>68</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="G28" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>70</v>
       </c>
-      <c r="H28" t="s">
-        <v>71</v>
-      </c>
       <c r="I28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J28">
         <v>90961</v>
@@ -2914,31 +2965,31 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" t="s">
         <v>80</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
+        <v>497</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D29" t="s">
+      <c r="G29" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E29" t="s">
-        <v>83</v>
-      </c>
-      <c r="F29" t="s">
-        <v>84</v>
-      </c>
-      <c r="G29" t="s">
-        <v>85</v>
-      </c>
       <c r="H29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J29">
         <v>1714621</v>
@@ -2949,31 +3000,31 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" t="s">
+        <v>498</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G30" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C30" t="s">
-        <v>87</v>
-      </c>
-      <c r="D30" t="s">
-        <v>88</v>
-      </c>
-      <c r="E30" t="s">
-        <v>89</v>
-      </c>
-      <c r="F30" t="s">
-        <v>90</v>
-      </c>
-      <c r="G30" t="s">
-        <v>91</v>
-      </c>
       <c r="H30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J30">
         <v>1980519</v>
@@ -2984,66 +3035,66 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H31" t="s">
         <v>95</v>
       </c>
-      <c r="C31" t="s">
-        <v>96</v>
-      </c>
-      <c r="D31" t="s">
-        <v>97</v>
-      </c>
-      <c r="E31" t="s">
-        <v>97</v>
-      </c>
-      <c r="F31" t="s">
-        <v>98</v>
-      </c>
-      <c r="G31" t="s">
-        <v>99</v>
-      </c>
-      <c r="H31" t="s">
-        <v>100</v>
-      </c>
       <c r="I31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J31">
         <v>12118</v>
       </c>
       <c r="K31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B32" t="s">
-        <v>317</v>
+        <v>271</v>
       </c>
       <c r="C32" t="s">
-        <v>325</v>
+        <v>278</v>
       </c>
       <c r="D32" t="s">
-        <v>197</v>
-      </c>
-      <c r="E32" t="s">
-        <v>197</v>
-      </c>
-      <c r="F32" t="s">
-        <v>180</v>
-      </c>
-      <c r="G32" t="s">
-        <v>181</v>
+        <v>173</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="H32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J32">
         <v>211044</v>
@@ -3054,31 +3105,31 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C33" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D33" t="s">
-        <v>103</v>
-      </c>
-      <c r="E33" t="s">
-        <v>103</v>
-      </c>
-      <c r="F33" t="s">
-        <v>104</v>
-      </c>
-      <c r="G33" t="s">
-        <v>105</v>
+        <v>98</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="H33" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J33">
         <v>11072</v>
@@ -3089,31 +3140,31 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B34" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C34" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D34" t="s">
-        <v>115</v>
-      </c>
-      <c r="E34" t="s">
-        <v>116</v>
-      </c>
-      <c r="F34" t="s">
+        <v>499</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G34" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>70</v>
       </c>
-      <c r="H34" t="s">
-        <v>71</v>
-      </c>
       <c r="I34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J34">
         <v>11292</v>
@@ -3124,31 +3175,31 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B35" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C35" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="D35" t="s">
-        <v>119</v>
-      </c>
-      <c r="E35" t="s">
-        <v>120</v>
-      </c>
-      <c r="F35" t="s">
-        <v>121</v>
-      </c>
-      <c r="G35" t="s">
-        <v>122</v>
+        <v>500</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="H35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J35">
         <v>11588</v>
@@ -3159,31 +3210,31 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B36" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="C36" t="s">
-        <v>326</v>
+        <v>279</v>
       </c>
       <c r="D36" t="s">
-        <v>124</v>
-      </c>
-      <c r="E36" t="s">
-        <v>125</v>
-      </c>
-      <c r="F36" t="s">
-        <v>126</v>
-      </c>
-      <c r="G36" t="s">
-        <v>127</v>
+        <v>501</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="H36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J36">
         <v>11242</v>
@@ -3194,778 +3245,883 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B37" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="C37" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="D37" t="s">
-        <v>133</v>
-      </c>
-      <c r="E37" t="s">
-        <v>134</v>
-      </c>
-      <c r="F37" t="s">
-        <v>135</v>
-      </c>
-      <c r="G37" t="s">
+        <v>515</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H37" t="s">
         <v>70</v>
       </c>
-      <c r="H37" t="s">
-        <v>71</v>
-      </c>
       <c r="I37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J37">
-        <v>11277</v>
+        <v>1972579</v>
       </c>
       <c r="K37" t="s">
-        <v>47</v>
+        <v>509</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B38" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="C38" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="D38" t="s">
-        <v>138</v>
-      </c>
-      <c r="E38" t="s">
-        <v>138</v>
-      </c>
-      <c r="F38" t="s">
-        <v>104</v>
-      </c>
-      <c r="G38" t="s">
-        <v>105</v>
+        <v>516</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="H38" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="I38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J38">
-        <v>11082</v>
+        <v>1972572</v>
       </c>
       <c r="K38" t="s">
-        <v>9</v>
+        <v>510</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>227</v>
+        <v>65</v>
       </c>
       <c r="B39" t="s">
-        <v>231</v>
+        <v>116</v>
       </c>
       <c r="C39" t="s">
-        <v>232</v>
+        <v>117</v>
       </c>
       <c r="D39" t="s">
-        <v>233</v>
-      </c>
-      <c r="E39" t="s">
-        <v>234</v>
-      </c>
-      <c r="F39" t="s">
-        <v>90</v>
-      </c>
-      <c r="G39" t="s">
-        <v>91</v>
+        <v>517</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="H39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J39">
-        <v>194540</v>
+        <v>1972577</v>
       </c>
       <c r="K39" t="s">
-        <v>46</v>
+        <v>511</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>227</v>
+        <v>65</v>
       </c>
       <c r="B40" t="s">
-        <v>235</v>
+        <v>116</v>
       </c>
       <c r="C40" t="s">
-        <v>324</v>
+        <v>117</v>
       </c>
       <c r="D40" t="s">
-        <v>236</v>
-      </c>
-      <c r="E40" t="s">
-        <v>237</v>
-      </c>
-      <c r="F40" t="s">
-        <v>126</v>
-      </c>
-      <c r="G40" t="s">
-        <v>127</v>
+        <v>518</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="H40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J40">
-        <v>2593991</v>
+        <v>1972578</v>
       </c>
       <c r="K40" t="s">
-        <v>37</v>
+        <v>512</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>227</v>
+        <v>65</v>
       </c>
       <c r="B41" t="s">
-        <v>238</v>
+        <v>119</v>
       </c>
       <c r="C41" t="s">
-        <v>316</v>
+        <v>120</v>
       </c>
       <c r="D41" t="s">
-        <v>312</v>
-      </c>
-      <c r="E41" t="s">
-        <v>312</v>
-      </c>
-      <c r="F41" t="s">
-        <v>160</v>
-      </c>
-      <c r="G41" t="s">
-        <v>161</v>
+        <v>121</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="H41" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="I41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J41">
-        <v>376852</v>
+        <v>11082</v>
       </c>
       <c r="K41" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>227</v>
+        <v>196</v>
       </c>
       <c r="B42" t="s">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="C42" t="s">
-        <v>330</v>
+        <v>201</v>
       </c>
       <c r="D42" t="s">
-        <v>239</v>
-      </c>
-      <c r="E42" t="s">
-        <v>313</v>
-      </c>
-      <c r="F42" t="s">
-        <v>160</v>
-      </c>
-      <c r="G42" t="s">
-        <v>161</v>
+        <v>502</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="H42" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="I42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J42">
-        <v>10266</v>
+        <v>194540</v>
       </c>
       <c r="K42" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>227</v>
+        <v>196</v>
       </c>
       <c r="B43" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="C43" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="D43" t="s">
-        <v>242</v>
-      </c>
-      <c r="E43" t="s">
-        <v>242</v>
-      </c>
-      <c r="F43" t="s">
-        <v>104</v>
-      </c>
-      <c r="G43" t="s">
-        <v>105</v>
+        <v>503</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="H43" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="I43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J43">
-        <v>164416</v>
+        <v>2593991</v>
       </c>
       <c r="K43" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>227</v>
+        <v>196</v>
       </c>
       <c r="B44" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="C44" t="s">
-        <v>228</v>
+        <v>270</v>
       </c>
       <c r="D44" t="s">
-        <v>229</v>
-      </c>
-      <c r="E44" t="s">
-        <v>230</v>
-      </c>
-      <c r="F44" t="s">
-        <v>153</v>
-      </c>
-      <c r="G44" t="s">
-        <v>149</v>
+        <v>266</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="H44" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I44" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J44">
-        <v>2169971</v>
+        <v>376852</v>
       </c>
       <c r="K44" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>243</v>
+        <v>196</v>
       </c>
       <c r="B45" t="s">
-        <v>244</v>
+        <v>203</v>
       </c>
       <c r="C45" t="s">
-        <v>245</v>
+        <v>283</v>
       </c>
       <c r="D45" t="s">
-        <v>246</v>
-      </c>
-      <c r="E45" t="s">
-        <v>246</v>
-      </c>
-      <c r="F45" t="s">
-        <v>247</v>
-      </c>
-      <c r="G45" t="s">
-        <v>248</v>
+        <v>204</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="H45" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="I45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J45">
-        <v>10497</v>
+        <v>10266</v>
       </c>
       <c r="K45" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>243</v>
+        <v>196</v>
       </c>
       <c r="B46" t="s">
-        <v>249</v>
+        <v>205</v>
       </c>
       <c r="C46" t="s">
-        <v>323</v>
+        <v>206</v>
       </c>
       <c r="D46" t="s">
-        <v>250</v>
-      </c>
-      <c r="E46" t="s">
-        <v>251</v>
-      </c>
-      <c r="F46" t="s">
-        <v>176</v>
-      </c>
-      <c r="G46" t="s">
-        <v>111</v>
+        <v>207</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="H46" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="I46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J46">
-        <v>10345</v>
+        <v>164416</v>
       </c>
       <c r="K46" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>243</v>
+        <v>196</v>
       </c>
       <c r="B47" t="s">
-        <v>274</v>
+        <v>197</v>
       </c>
       <c r="C47" t="s">
-        <v>275</v>
+        <v>197</v>
       </c>
       <c r="D47" t="s">
-        <v>276</v>
-      </c>
-      <c r="E47" t="s">
-        <v>277</v>
-      </c>
-      <c r="F47" t="s">
-        <v>144</v>
-      </c>
-      <c r="G47" t="s">
-        <v>105</v>
+        <v>198</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="H47" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I47" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J47">
-        <v>412969</v>
+        <v>2169971</v>
       </c>
       <c r="K47" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="B48" t="s">
-        <v>252</v>
+        <v>209</v>
       </c>
       <c r="C48" t="s">
-        <v>322</v>
+        <v>210</v>
       </c>
       <c r="D48" t="s">
-        <v>253</v>
-      </c>
-      <c r="E48" t="s">
-        <v>254</v>
-      </c>
-      <c r="F48" t="s">
-        <v>144</v>
-      </c>
-      <c r="G48" t="s">
-        <v>105</v>
+        <v>211</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="H48" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I48" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J48">
-        <v>358769</v>
+        <v>10497</v>
       </c>
       <c r="K48" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="B49" t="s">
-        <v>255</v>
+        <v>214</v>
       </c>
       <c r="C49" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="D49" t="s">
-        <v>257</v>
-      </c>
-      <c r="E49" t="s">
-        <v>258</v>
-      </c>
-      <c r="F49" t="s">
-        <v>259</v>
-      </c>
-      <c r="G49" t="s">
-        <v>127</v>
+        <v>519</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>459</v>
       </c>
       <c r="H49" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="I49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J49">
-        <v>152219</v>
+        <v>10345</v>
       </c>
       <c r="K49" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="B50" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
       <c r="C50" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="D50" t="s">
-        <v>262</v>
-      </c>
-      <c r="E50" t="s">
-        <v>263</v>
-      </c>
-      <c r="F50" t="s">
-        <v>195</v>
-      </c>
-      <c r="G50" t="s">
-        <v>127</v>
+        <v>504</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="H50" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="I50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J50">
-        <v>121791</v>
+        <v>412969</v>
       </c>
       <c r="K50" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="B51" t="s">
-        <v>269</v>
+        <v>215</v>
       </c>
       <c r="C51" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D51" t="s">
-        <v>271</v>
-      </c>
-      <c r="E51" t="s">
-        <v>271</v>
-      </c>
-      <c r="F51" t="s">
-        <v>272</v>
-      </c>
-      <c r="G51" t="s">
-        <v>273</v>
+        <v>505</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="H51" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I51" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J51">
-        <v>28295</v>
+        <v>358769</v>
       </c>
       <c r="K51" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="B52" t="s">
-        <v>278</v>
+        <v>216</v>
       </c>
       <c r="C52" t="s">
-        <v>279</v>
+        <v>217</v>
       </c>
       <c r="D52" t="s">
-        <v>280</v>
-      </c>
-      <c r="E52" t="s">
-        <v>281</v>
-      </c>
-      <c r="F52" t="s">
-        <v>282</v>
-      </c>
-      <c r="G52" t="s">
-        <v>187</v>
+        <v>506</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="H52" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="I52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J52">
-        <v>11049</v>
+        <v>152219</v>
       </c>
       <c r="K52" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="B53" t="s">
-        <v>288</v>
+        <v>219</v>
       </c>
       <c r="C53" t="s">
-        <v>289</v>
+        <v>220</v>
       </c>
       <c r="D53" t="s">
-        <v>290</v>
-      </c>
-      <c r="E53" t="s">
-        <v>291</v>
-      </c>
-      <c r="F53" t="s">
-        <v>292</v>
-      </c>
-      <c r="G53" t="s">
-        <v>99</v>
+        <v>507</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="H53" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="I53" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J53">
-        <v>390157</v>
+        <v>121791</v>
       </c>
       <c r="K53" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="B54" t="s">
-        <v>293</v>
+        <v>226</v>
       </c>
       <c r="C54" t="s">
-        <v>294</v>
+        <v>227</v>
       </c>
       <c r="D54" t="s">
-        <v>295</v>
-      </c>
-      <c r="E54" t="s">
-        <v>327</v>
-      </c>
-      <c r="F54" t="s">
-        <v>296</v>
-      </c>
-      <c r="G54" t="s">
-        <v>99</v>
+        <v>228</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>230</v>
       </c>
       <c r="H54" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I54" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J54">
-        <v>12075</v>
+        <v>28295</v>
       </c>
       <c r="K54" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="B55" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="C55" t="s">
-        <v>265</v>
+        <v>234</v>
       </c>
       <c r="D55" t="s">
-        <v>266</v>
-      </c>
-      <c r="E55" t="s">
-        <v>267</v>
-      </c>
-      <c r="F55" t="s">
-        <v>268</v>
-      </c>
-      <c r="G55" t="s">
-        <v>99</v>
+        <v>235</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>165</v>
       </c>
       <c r="H55" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I55" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J55">
-        <v>118140</v>
+        <v>11049</v>
       </c>
       <c r="K55" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>208</v>
+      </c>
+      <c r="B56" t="s">
+        <v>242</v>
+      </c>
+      <c r="C56" t="s">
         <v>243</v>
       </c>
-      <c r="B56" t="s">
-        <v>297</v>
-      </c>
-      <c r="C56" t="s">
-        <v>298</v>
-      </c>
       <c r="D56" t="s">
-        <v>299</v>
-      </c>
-      <c r="E56" t="s">
-        <v>300</v>
-      </c>
-      <c r="F56" t="s">
-        <v>272</v>
-      </c>
-      <c r="G56" t="s">
-        <v>273</v>
+        <v>244</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="H56" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I56" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J56">
-        <v>11149</v>
+        <v>390157</v>
       </c>
       <c r="K56" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="B57" t="s">
-        <v>301</v>
+        <v>247</v>
       </c>
       <c r="C57" t="s">
-        <v>302</v>
+        <v>248</v>
       </c>
       <c r="D57" t="s">
-        <v>303</v>
-      </c>
-      <c r="E57" t="s">
-        <v>303</v>
-      </c>
-      <c r="F57" t="s">
-        <v>304</v>
-      </c>
-      <c r="G57" t="s">
-        <v>305</v>
+        <v>249</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="H57" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I57" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J57">
-        <v>35612</v>
+        <v>12075</v>
       </c>
       <c r="K57" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="B58" t="s">
-        <v>283</v>
+        <v>221</v>
       </c>
       <c r="C58" t="s">
-        <v>283</v>
+        <v>222</v>
       </c>
       <c r="D58" t="s">
-        <v>284</v>
-      </c>
-      <c r="E58" t="s">
-        <v>284</v>
-      </c>
-      <c r="F58" t="s">
-        <v>285</v>
-      </c>
-      <c r="G58" t="s">
-        <v>286</v>
+        <v>223</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="H58" t="s">
-        <v>287</v>
+        <v>95</v>
       </c>
       <c r="I58" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J58">
+        <v>118140</v>
+      </c>
+      <c r="K58" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>208</v>
+      </c>
+      <c r="B59" t="s">
+        <v>251</v>
+      </c>
+      <c r="C59" t="s">
+        <v>252</v>
+      </c>
+      <c r="D59" t="s">
+        <v>253</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="H59" t="s">
+        <v>95</v>
+      </c>
+      <c r="I59" t="s">
+        <v>71</v>
+      </c>
+      <c r="J59">
+        <v>11149</v>
+      </c>
+      <c r="K59" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>208</v>
+      </c>
+      <c r="B60" t="s">
+        <v>255</v>
+      </c>
+      <c r="C60" t="s">
+        <v>256</v>
+      </c>
+      <c r="D60" t="s">
+        <v>257</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H60" t="s">
+        <v>95</v>
+      </c>
+      <c r="I60" t="s">
+        <v>71</v>
+      </c>
+      <c r="J60">
+        <v>35612</v>
+      </c>
+      <c r="K60" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>208</v>
+      </c>
+      <c r="B61" t="s">
+        <v>238</v>
+      </c>
+      <c r="C61" t="s">
+        <v>238</v>
+      </c>
+      <c r="D61" t="s">
+        <v>508</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="H61" t="s">
+        <v>241</v>
+      </c>
+      <c r="I61" t="s">
+        <v>71</v>
+      </c>
+      <c r="J61">
         <v>85708</v>
       </c>
-      <c r="K58" t="s">
+      <c r="K61" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N58">
-    <sortCondition ref="A2:A58"/>
-    <sortCondition ref="B2:B58"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N61">
+    <sortCondition ref="A2:A61"/>
+    <sortCondition ref="B2:B61"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4001,1162 +4157,1162 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>328</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>331</v>
+        <v>284</v>
       </c>
       <c r="B2" t="s">
-        <v>361</v>
+        <v>314</v>
       </c>
       <c r="C2" t="s">
-        <v>420</v>
+        <v>373</v>
       </c>
       <c r="D2" t="s">
-        <v>399</v>
+        <v>352</v>
       </c>
       <c r="E2" t="s">
-        <v>399</v>
+        <v>352</v>
       </c>
       <c r="F2" t="s">
-        <v>390</v>
+        <v>343</v>
       </c>
       <c r="G2" t="s">
-        <v>391</v>
+        <v>344</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="I2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J2">
         <v>100217</v>
       </c>
       <c r="K2" t="s">
-        <v>370</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>331</v>
+        <v>284</v>
       </c>
       <c r="B3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D3" t="s">
         <v>360</v>
       </c>
-      <c r="C3" t="s">
-        <v>421</v>
-      </c>
-      <c r="D3" t="s">
-        <v>407</v>
-      </c>
       <c r="E3" t="s">
-        <v>408</v>
+        <v>361</v>
       </c>
       <c r="F3" t="s">
-        <v>409</v>
+        <v>362</v>
       </c>
       <c r="G3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="I3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J3">
         <v>11290</v>
       </c>
       <c r="K3" t="s">
-        <v>373</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>331</v>
+        <v>284</v>
       </c>
       <c r="B4" t="s">
-        <v>359</v>
+        <v>312</v>
       </c>
       <c r="C4" t="s">
-        <v>424</v>
+        <v>377</v>
       </c>
       <c r="D4" t="s">
-        <v>434</v>
+        <v>387</v>
       </c>
       <c r="E4" t="s">
-        <v>435</v>
+        <v>388</v>
       </c>
       <c r="F4" t="s">
-        <v>433</v>
+        <v>386</v>
       </c>
       <c r="G4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="I4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J4">
         <v>696863</v>
       </c>
       <c r="K4" t="s">
-        <v>381</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>331</v>
+        <v>284</v>
       </c>
       <c r="B5" t="s">
-        <v>358</v>
+        <v>311</v>
       </c>
       <c r="C5" t="s">
-        <v>437</v>
+        <v>390</v>
       </c>
       <c r="D5" t="s">
-        <v>440</v>
+        <v>393</v>
       </c>
       <c r="E5" t="s">
-        <v>436</v>
+        <v>389</v>
       </c>
       <c r="F5" t="s">
-        <v>409</v>
+        <v>362</v>
       </c>
       <c r="G5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J5">
         <v>11287</v>
       </c>
       <c r="K5" t="s">
-        <v>387</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>331</v>
+        <v>284</v>
       </c>
       <c r="B6" t="s">
-        <v>357</v>
+        <v>310</v>
       </c>
       <c r="C6" t="s">
-        <v>441</v>
+        <v>394</v>
       </c>
       <c r="D6" t="s">
-        <v>425</v>
+        <v>378</v>
       </c>
       <c r="E6" t="s">
-        <v>425</v>
+        <v>378</v>
       </c>
       <c r="F6" t="s">
-        <v>442</v>
+        <v>395</v>
       </c>
       <c r="G6" t="s">
-        <v>443</v>
+        <v>396</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>402</v>
+        <v>355</v>
       </c>
       <c r="I6" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="J6">
         <v>43763</v>
       </c>
       <c r="K6" t="s">
-        <v>386</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>331</v>
+        <v>284</v>
       </c>
       <c r="B7" t="s">
-        <v>357</v>
+        <v>310</v>
       </c>
       <c r="C7" t="s">
-        <v>441</v>
+        <v>394</v>
       </c>
       <c r="D7" t="s">
-        <v>426</v>
+        <v>379</v>
       </c>
       <c r="E7" t="s">
-        <v>446</v>
+        <v>399</v>
       </c>
       <c r="F7" t="s">
-        <v>442</v>
+        <v>395</v>
       </c>
       <c r="G7" t="s">
-        <v>443</v>
+        <v>396</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>402</v>
+        <v>355</v>
       </c>
       <c r="I7" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="J7">
         <v>35297</v>
       </c>
       <c r="K7" t="s">
-        <v>385</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>331</v>
+        <v>284</v>
       </c>
       <c r="B8" t="s">
-        <v>357</v>
+        <v>310</v>
       </c>
       <c r="C8" t="s">
-        <v>441</v>
+        <v>394</v>
       </c>
       <c r="D8" t="s">
-        <v>444</v>
+        <v>397</v>
       </c>
       <c r="E8" t="s">
-        <v>447</v>
+        <v>400</v>
       </c>
       <c r="F8" t="s">
-        <v>442</v>
+        <v>395</v>
       </c>
       <c r="G8" t="s">
-        <v>443</v>
+        <v>396</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>402</v>
+        <v>355</v>
       </c>
       <c r="I8" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="J8">
         <v>43761</v>
       </c>
       <c r="K8" t="s">
-        <v>448</v>
+        <v>401</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>331</v>
+        <v>284</v>
       </c>
       <c r="B9" t="s">
-        <v>357</v>
+        <v>310</v>
       </c>
       <c r="C9" t="s">
-        <v>441</v>
+        <v>394</v>
       </c>
       <c r="D9" t="s">
-        <v>445</v>
+        <v>398</v>
       </c>
       <c r="E9" t="s">
-        <v>445</v>
+        <v>398</v>
       </c>
       <c r="F9" t="s">
-        <v>442</v>
+        <v>395</v>
       </c>
       <c r="G9" t="s">
-        <v>443</v>
+        <v>396</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>402</v>
+        <v>355</v>
       </c>
       <c r="I9" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="J9">
         <v>43764</v>
       </c>
       <c r="K9" t="s">
-        <v>449</v>
+        <v>402</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>331</v>
+        <v>284</v>
       </c>
       <c r="B10" t="s">
-        <v>356</v>
+        <v>309</v>
       </c>
       <c r="C10" t="s">
-        <v>423</v>
+        <v>376</v>
       </c>
       <c r="D10" t="s">
-        <v>394</v>
+        <v>347</v>
       </c>
       <c r="E10" t="s">
-        <v>450</v>
+        <v>403</v>
       </c>
       <c r="F10" t="s">
-        <v>395</v>
+        <v>348</v>
       </c>
       <c r="G10" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I10" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="J10">
         <v>11002</v>
       </c>
       <c r="K10" t="s">
-        <v>368</v>
+        <v>321</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>331</v>
+        <v>284</v>
       </c>
       <c r="B11" t="s">
-        <v>355</v>
+        <v>308</v>
       </c>
       <c r="C11" t="s">
-        <v>451</v>
+        <v>404</v>
       </c>
       <c r="D11" t="s">
-        <v>404</v>
+        <v>357</v>
       </c>
       <c r="E11" t="s">
-        <v>453</v>
+        <v>406</v>
       </c>
       <c r="F11" t="s">
-        <v>405</v>
+        <v>358</v>
       </c>
       <c r="G11" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I11" t="s">
-        <v>406</v>
+        <v>359</v>
       </c>
       <c r="J11">
         <v>55987</v>
       </c>
       <c r="K11" t="s">
-        <v>372</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>331</v>
+        <v>284</v>
       </c>
       <c r="B12" t="s">
-        <v>354</v>
+        <v>307</v>
       </c>
       <c r="C12" t="s">
-        <v>452</v>
+        <v>405</v>
       </c>
       <c r="D12" t="s">
-        <v>454</v>
+        <v>407</v>
       </c>
       <c r="E12" t="s">
-        <v>454</v>
+        <v>407</v>
       </c>
       <c r="F12" t="s">
-        <v>418</v>
+        <v>371</v>
       </c>
       <c r="G12" t="s">
-        <v>391</v>
+        <v>344</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="I12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J12">
         <v>65424</v>
       </c>
       <c r="K12" t="s">
-        <v>455</v>
+        <v>408</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>331</v>
+        <v>284</v>
       </c>
       <c r="B13" t="s">
-        <v>353</v>
+        <v>306</v>
       </c>
       <c r="C13" t="s">
-        <v>461</v>
+        <v>414</v>
       </c>
       <c r="D13" t="s">
-        <v>456</v>
+        <v>409</v>
       </c>
       <c r="E13" t="s">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="F13" t="s">
-        <v>457</v>
+        <v>410</v>
       </c>
       <c r="G13" t="s">
-        <v>458</v>
+        <v>411</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="I13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J13">
         <v>180230</v>
       </c>
       <c r="K13" t="s">
-        <v>377</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>331</v>
+        <v>284</v>
       </c>
       <c r="B14" t="s">
-        <v>352</v>
+        <v>305</v>
       </c>
       <c r="C14" t="s">
-        <v>460</v>
+        <v>413</v>
       </c>
       <c r="D14" t="s">
-        <v>429</v>
+        <v>382</v>
       </c>
       <c r="E14" t="s">
-        <v>429</v>
+        <v>382</v>
       </c>
       <c r="F14" t="s">
-        <v>390</v>
+        <v>343</v>
       </c>
       <c r="G14" t="s">
-        <v>391</v>
+        <v>344</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="I14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J14">
         <v>262968</v>
       </c>
       <c r="K14" t="s">
-        <v>380</v>
+        <v>333</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>331</v>
+        <v>284</v>
       </c>
       <c r="B15" t="s">
-        <v>351</v>
+        <v>304</v>
       </c>
       <c r="C15" t="s">
-        <v>427</v>
+        <v>380</v>
       </c>
       <c r="D15" t="s">
-        <v>417</v>
+        <v>370</v>
       </c>
       <c r="E15" t="s">
-        <v>417</v>
+        <v>370</v>
       </c>
       <c r="F15" t="s">
-        <v>418</v>
+        <v>371</v>
       </c>
       <c r="G15" t="s">
-        <v>391</v>
+        <v>344</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="I15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J15">
         <v>180170</v>
       </c>
       <c r="K15" t="s">
-        <v>376</v>
+        <v>329</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>331</v>
+        <v>284</v>
       </c>
       <c r="B16" t="s">
-        <v>350</v>
+        <v>303</v>
       </c>
       <c r="C16" t="s">
-        <v>462</v>
+        <v>415</v>
       </c>
       <c r="D16" t="s">
-        <v>430</v>
+        <v>383</v>
       </c>
       <c r="E16" t="s">
-        <v>430</v>
+        <v>383</v>
       </c>
       <c r="F16" t="s">
-        <v>418</v>
+        <v>371</v>
       </c>
       <c r="G16" t="s">
-        <v>391</v>
+        <v>344</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="I16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J16">
         <v>273651</v>
       </c>
       <c r="K16" t="s">
-        <v>384</v>
+        <v>337</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>331</v>
+        <v>284</v>
       </c>
       <c r="B17" t="s">
-        <v>349</v>
+        <v>302</v>
       </c>
       <c r="C17" t="s">
-        <v>438</v>
+        <v>391</v>
       </c>
       <c r="D17" t="s">
-        <v>463</v>
+        <v>416</v>
       </c>
       <c r="E17" t="s">
-        <v>463</v>
+        <v>416</v>
       </c>
       <c r="F17" t="s">
-        <v>418</v>
+        <v>371</v>
       </c>
       <c r="G17" t="s">
-        <v>391</v>
+        <v>344</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="I17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J17">
         <v>1697349</v>
       </c>
       <c r="K17" t="s">
-        <v>379</v>
+        <v>332</v>
       </c>
     </row>
     <row r="18" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>331</v>
+        <v>284</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>348</v>
+        <v>301</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>465</v>
+        <v>418</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>403</v>
+        <v>356</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>403</v>
+        <v>356</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>402</v>
+        <v>355</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J18" s="4">
         <v>84589</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>501</v>
+        <v>454</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>331</v>
+        <v>284</v>
       </c>
       <c r="B19" t="s">
-        <v>347</v>
+        <v>300</v>
       </c>
       <c r="C19" t="s">
-        <v>466</v>
+        <v>419</v>
       </c>
       <c r="D19" t="s">
-        <v>419</v>
+        <v>372</v>
       </c>
       <c r="E19" t="s">
-        <v>467</v>
+        <v>420</v>
       </c>
       <c r="F19" t="s">
-        <v>468</v>
+        <v>421</v>
       </c>
       <c r="G19" t="s">
-        <v>469</v>
+        <v>422</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J19">
         <v>1549864</v>
       </c>
       <c r="K19" t="s">
-        <v>383</v>
+        <v>336</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>332</v>
+        <v>285</v>
       </c>
       <c r="B20" t="s">
-        <v>346</v>
+        <v>299</v>
       </c>
       <c r="C20" t="s">
-        <v>362</v>
+        <v>315</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>363</v>
+        <v>316</v>
       </c>
       <c r="E20" t="s">
-        <v>364</v>
+        <v>317</v>
       </c>
       <c r="F20" t="s">
-        <v>365</v>
+        <v>318</v>
       </c>
       <c r="G20" t="s">
-        <v>366</v>
+        <v>319</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="I20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J20">
         <v>1241371</v>
       </c>
       <c r="K20" t="s">
-        <v>367</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>332</v>
+        <v>285</v>
       </c>
       <c r="B21" t="s">
-        <v>345</v>
+        <v>298</v>
       </c>
       <c r="C21" t="s">
-        <v>472</v>
+        <v>425</v>
       </c>
       <c r="D21" t="s">
-        <v>473</v>
+        <v>426</v>
       </c>
       <c r="E21" t="s">
-        <v>470</v>
+        <v>423</v>
       </c>
       <c r="F21" t="s">
-        <v>471</v>
+        <v>424</v>
       </c>
       <c r="G21" t="s">
-        <v>366</v>
+        <v>319</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="I21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J21">
         <v>261939</v>
       </c>
       <c r="K21" t="s">
-        <v>378</v>
+        <v>331</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>333</v>
+        <v>286</v>
       </c>
       <c r="B22" t="s">
-        <v>344</v>
+        <v>297</v>
       </c>
       <c r="C22" t="s">
+        <v>381</v>
+      </c>
+      <c r="D22" t="s">
+        <v>384</v>
+      </c>
+      <c r="E22" t="s">
+        <v>427</v>
+      </c>
+      <c r="F22" t="s">
         <v>428</v>
       </c>
-      <c r="D22" t="s">
-        <v>431</v>
-      </c>
-      <c r="E22" t="s">
-        <v>474</v>
-      </c>
-      <c r="F22" t="s">
-        <v>475</v>
-      </c>
       <c r="G22" t="s">
-        <v>476</v>
+        <v>429</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>402</v>
+        <v>355</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J22">
         <v>142102</v>
       </c>
       <c r="K22" t="s">
-        <v>382</v>
+        <v>335</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>333</v>
+        <v>286</v>
       </c>
       <c r="B23" t="s">
-        <v>343</v>
+        <v>296</v>
       </c>
       <c r="C23" t="s">
-        <v>479</v>
+        <v>432</v>
       </c>
       <c r="D23" t="s">
-        <v>480</v>
+        <v>433</v>
       </c>
       <c r="E23" t="s">
-        <v>464</v>
+        <v>417</v>
       </c>
       <c r="F23" t="s">
-        <v>477</v>
+        <v>430</v>
       </c>
       <c r="G23" t="s">
-        <v>478</v>
+        <v>431</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="I23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J23">
         <v>342409</v>
       </c>
       <c r="K23" t="s">
-        <v>388</v>
+        <v>341</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>333</v>
+        <v>286</v>
       </c>
       <c r="B24" t="s">
-        <v>342</v>
+        <v>295</v>
       </c>
       <c r="C24" t="s">
-        <v>422</v>
+        <v>375</v>
       </c>
       <c r="D24" t="s">
-        <v>432</v>
+        <v>385</v>
       </c>
       <c r="E24" t="s">
-        <v>482</v>
+        <v>435</v>
       </c>
       <c r="F24" t="s">
-        <v>400</v>
+        <v>353</v>
       </c>
       <c r="G24" t="s">
-        <v>401</v>
+        <v>354</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>402</v>
+        <v>355</v>
       </c>
       <c r="I24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J24">
         <v>96029</v>
       </c>
       <c r="K24" t="s">
-        <v>371</v>
+        <v>324</v>
       </c>
       <c r="M24" s="4"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>333</v>
+        <v>286</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>341</v>
+        <v>294</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>485</v>
+        <v>438</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>481</v>
+        <v>434</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>483</v>
+        <v>436</v>
       </c>
       <c r="F25" t="s">
-        <v>400</v>
+        <v>353</v>
       </c>
       <c r="G25" t="s">
-        <v>401</v>
+        <v>354</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>402</v>
+        <v>355</v>
       </c>
       <c r="I25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J25" s="4">
         <v>96491</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>484</v>
+        <v>437</v>
       </c>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>333</v>
+        <v>286</v>
       </c>
       <c r="B26" t="s">
-        <v>340</v>
+        <v>293</v>
       </c>
       <c r="C26" t="s">
-        <v>486</v>
+        <v>439</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>487</v>
+        <v>440</v>
       </c>
       <c r="E26" t="s">
-        <v>410</v>
+        <v>363</v>
       </c>
       <c r="F26" t="s">
-        <v>411</v>
+        <v>364</v>
       </c>
       <c r="G26" t="s">
-        <v>412</v>
+        <v>365</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>413</v>
+        <v>366</v>
       </c>
       <c r="I26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J26" s="4">
         <v>1513224</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>374</v>
+        <v>327</v>
       </c>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>333</v>
+        <v>286</v>
       </c>
       <c r="B27" t="s">
-        <v>339</v>
+        <v>292</v>
       </c>
       <c r="C27" t="s">
-        <v>489</v>
+        <v>442</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>439</v>
+        <v>392</v>
       </c>
       <c r="E27" t="s">
-        <v>439</v>
+        <v>392</v>
       </c>
       <c r="F27" t="s">
-        <v>488</v>
+        <v>441</v>
       </c>
       <c r="G27" t="s">
-        <v>443</v>
+        <v>396</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>402</v>
+        <v>355</v>
       </c>
       <c r="I27" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="J27" s="4">
         <v>222557</v>
       </c>
       <c r="K27" t="s">
-        <v>389</v>
+        <v>342</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>333</v>
+        <v>286</v>
       </c>
       <c r="B28" t="s">
-        <v>338</v>
+        <v>291</v>
       </c>
       <c r="C28" t="s">
-        <v>490</v>
+        <v>443</v>
       </c>
       <c r="D28" t="s">
-        <v>414</v>
+        <v>367</v>
       </c>
       <c r="E28" t="s">
-        <v>414</v>
+        <v>367</v>
       </c>
       <c r="F28" t="s">
-        <v>415</v>
+        <v>368</v>
       </c>
       <c r="G28" t="s">
-        <v>416</v>
+        <v>369</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J28">
         <v>282786</v>
       </c>
       <c r="K28" t="s">
-        <v>375</v>
+        <v>328</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>333</v>
+        <v>286</v>
       </c>
       <c r="B29" t="s">
-        <v>337</v>
+        <v>290</v>
       </c>
       <c r="C29" t="s">
-        <v>337</v>
+        <v>290</v>
       </c>
       <c r="D29" t="s">
-        <v>495</v>
+        <v>448</v>
       </c>
       <c r="E29" t="s">
-        <v>494</v>
+        <v>447</v>
       </c>
       <c r="F29" t="s">
-        <v>492</v>
+        <v>445</v>
       </c>
       <c r="G29" t="s">
-        <v>493</v>
+        <v>446</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>402</v>
+        <v>355</v>
       </c>
       <c r="I29" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="J29">
         <v>691504</v>
       </c>
       <c r="K29" t="s">
-        <v>491</v>
+        <v>444</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>333</v>
+        <v>286</v>
       </c>
       <c r="B30" t="s">
-        <v>336</v>
+        <v>289</v>
       </c>
       <c r="C30" t="s">
-        <v>396</v>
+        <v>349</v>
       </c>
       <c r="D30" t="s">
-        <v>396</v>
+        <v>349</v>
       </c>
       <c r="E30" t="s">
-        <v>397</v>
+        <v>350</v>
       </c>
       <c r="F30" t="s">
-        <v>398</v>
+        <v>351</v>
       </c>
       <c r="G30" t="s">
-        <v>391</v>
+        <v>344</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="I30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J30">
         <v>2039780</v>
       </c>
       <c r="K30" t="s">
-        <v>369</v>
+        <v>322</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>334</v>
+        <v>287</v>
       </c>
       <c r="B31" t="s">
-        <v>335</v>
+        <v>288</v>
       </c>
       <c r="C31" t="s">
-        <v>500</v>
+        <v>453</v>
       </c>
       <c r="D31" t="s">
-        <v>392</v>
+        <v>345</v>
       </c>
       <c r="E31" t="s">
-        <v>392</v>
+        <v>345</v>
       </c>
       <c r="F31" t="s">
-        <v>390</v>
+        <v>343</v>
       </c>
       <c r="G31" t="s">
-        <v>391</v>
+        <v>344</v>
       </c>
       <c r="H31" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="I31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J31">
         <v>10493</v>
       </c>
       <c r="K31" t="s">
-        <v>393</v>
+        <v>346</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>334</v>
+        <v>287</v>
       </c>
       <c r="B32" t="s">
-        <v>335</v>
+        <v>288</v>
       </c>
       <c r="C32" t="s">
-        <v>500</v>
+        <v>453</v>
       </c>
       <c r="D32" t="s">
-        <v>496</v>
+        <v>449</v>
       </c>
       <c r="E32" t="s">
-        <v>496</v>
+        <v>449</v>
       </c>
       <c r="F32" t="s">
-        <v>390</v>
+        <v>343</v>
       </c>
       <c r="G32" t="s">
-        <v>391</v>
+        <v>344</v>
       </c>
       <c r="H32" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="I32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J32">
         <v>217733</v>
       </c>
       <c r="K32" t="s">
-        <v>498</v>
+        <v>451</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>334</v>
+        <v>287</v>
       </c>
       <c r="B33" t="s">
-        <v>335</v>
+        <v>288</v>
       </c>
       <c r="C33" t="s">
-        <v>500</v>
+        <v>453</v>
       </c>
       <c r="D33" t="s">
-        <v>497</v>
+        <v>450</v>
       </c>
       <c r="E33" t="s">
-        <v>497</v>
+        <v>450</v>
       </c>
       <c r="F33" t="s">
-        <v>390</v>
+        <v>343</v>
       </c>
       <c r="G33" t="s">
-        <v>391</v>
+        <v>344</v>
       </c>
       <c r="H33" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="I33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J33">
         <v>100220</v>
       </c>
       <c r="K33" t="s">
-        <v>499</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -5169,17 +5325,19 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e2088c45-b32c-4a2f-b748-1ced54c15c8c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="7533f65b-9fc6-4958-b4ee-249ab5582e7d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100755C9B9B539DF444ADCB9AA1D401BB43" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="75bdbb55888cf60a89a1a04c74a7ddb9">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e2088c45-b32c-4a2f-b748-1ced54c15c8c" xmlns:ns3="7533f65b-9fc6-4958-b4ee-249ab5582e7d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="597dc51e6f81fbc8020ec323f56a734c" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100755C9B9B539DF444ADCB9AA1D401BB43" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="13bdda09eb123f72cb449c08a94aa9eb">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e2088c45-b32c-4a2f-b748-1ced54c15c8c" xmlns:ns3="7533f65b-9fc6-4958-b4ee-249ab5582e7d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6c3abf0ad7af367f66c4ae4c25824459" ns2:_="" ns3:_="">
     <xsd:import namespace="e2088c45-b32c-4a2f-b748-1ced54c15c8c"/>
     <xsd:import namespace="7533f65b-9fc6-4958-b4ee-249ab5582e7d"/>
     <xsd:element name="properties">
@@ -5203,6 +5361,8 @@
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -5277,6 +5437,16 @@
     <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="23" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="24" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -5420,14 +5590,49 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C67BD53-6998-4B46-9FD5-3425E75CFEFA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e2088c45-b32c-4a2f-b748-1ced54c15c8c"/>
+    <ds:schemaRef ds:uri="7533f65b-9fc6-4958-b4ee-249ab5582e7d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F4FD249-4C39-4A8E-B8D6-24FEBBC03B73}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e2088c45-b32c-4a2f-b748-1ced54c15c8c"/>
+    <ds:schemaRef ds:uri="7533f65b-9fc6-4958-b4ee-249ab5582e7d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE338436-1CD2-44E8-8501-61D26ED4E39B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60B11F12-1017-4A83-A209-5A4212B4B1BE}"/>
 </file>